--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1552236656362457</v>
+        <v>0.1581163383986821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.195669079344447</v>
+        <v>0.1928772493760705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2905130674237867</v>
+        <v>0.2936751320298857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09509587328656637</v>
+        <v>0.09378975754938031</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1829418445465081</v>
+        <v>0.1786369671697382</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3408459305937123</v>
+        <v>0.3442790313774526</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3811538383363387</v>
+        <v>0.3865969258191763</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08510066489690626</v>
+        <v>0.08649438031931754</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1828068596934932</v>
+        <v>0.1835490264784061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2824920294016544</v>
+        <v>0.2792124853011783</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3503988839764231</v>
+        <v>0.3517147731295316</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09880658757675402</v>
+        <v>0.0986528393506923</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2531427129690973</v>
+        <v>0.25695237486519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.299411714418937</v>
+        <v>0.2907963036603244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4024417545071229</v>
+        <v>0.4068794772426813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1652367812936416</v>
+        <v>0.1625490717358939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2837893163915282</v>
+        <v>0.2899401302546191</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4630178001439599</v>
+        <v>0.4693545255866668</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5057935926313722</v>
+        <v>0.5038401125140541</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1344592196583516</v>
+        <v>0.1369928180462446</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2561241204787317</v>
+        <v>0.2563178290140669</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3602131998108275</v>
+        <v>0.3618107976852934</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4365275362513729</v>
+        <v>0.4363310974442169</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.139983130874302</v>
+        <v>0.1403752656412716</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.279644317798913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3946393462765529</v>
+        <v>0.3946393462765528</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3289014652964722</v>
@@ -821,7 +821,7 @@
         <v>0.3631305778806177</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4121859894362103</v>
+        <v>0.4121859894362104</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2810484137289237</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1906477832458056</v>
+        <v>0.1965865198496538</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3305782036912914</v>
+        <v>0.3332685321007184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2392262944491578</v>
+        <v>0.2387205515771429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3412204876231623</v>
+        <v>0.3446281789889414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2883974898269505</v>
+        <v>0.2911775430174273</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4011479641587237</v>
+        <v>0.4015846917367661</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3202568864404909</v>
+        <v>0.3202188406662635</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3740621346955854</v>
+        <v>0.3741682064073334</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2528695766156719</v>
+        <v>0.2540526667514335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.381151097136347</v>
+        <v>0.3771807985171815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2914235287122917</v>
+        <v>0.290101299685865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.37365082422761</v>
+        <v>0.3710586348118562</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2722741928427838</v>
+        <v>0.2789154618962137</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4219153100914402</v>
+        <v>0.4222692366585498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3234716406218734</v>
+        <v>0.3226479620242938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4456047003928554</v>
+        <v>0.4505717564351575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3748607512393656</v>
+        <v>0.3759209667117231</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4897239161256416</v>
+        <v>0.4923390434871201</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4096251919872583</v>
+        <v>0.4115032717090108</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4499558655135668</v>
+        <v>0.451448054996308</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3111453773576299</v>
+        <v>0.3100231000708913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.439581051266181</v>
+        <v>0.4427629042627582</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3488477441330677</v>
+        <v>0.3527236931904393</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4359826103639002</v>
+        <v>0.4359533220363507</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.299681119480772</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2881193064153198</v>
+        <v>0.2881193064153199</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09809669651738728</v>
+        <v>0.1002269141328333</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1911863414313775</v>
+        <v>0.1903007274050648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2168803058157572</v>
+        <v>0.2135650971982774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2375047331579289</v>
+        <v>0.2362164881261141</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1466689457855404</v>
+        <v>0.1470715098502922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2446142522462355</v>
+        <v>0.2441658789710698</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2827145280104137</v>
+        <v>0.280888294681358</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2559101509263456</v>
+        <v>0.2599184994703908</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1321302872688449</v>
+        <v>0.135372738848721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2327384462505228</v>
+        <v>0.2310353876085029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2624576194489571</v>
+        <v>0.2653355477861076</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2574418709506328</v>
+        <v>0.2602651964988516</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1750662964905497</v>
+        <v>0.1755283497609313</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2822335252315616</v>
+        <v>0.2915333726860344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.313109423705938</v>
+        <v>0.3175269989747048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.330016165834894</v>
+        <v>0.3336421788302537</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2331180509946198</v>
+        <v>0.2276050420508738</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.34803171441516</v>
+        <v>0.3437115757984931</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3855375544430345</v>
+        <v>0.3876931150591908</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3291964800047966</v>
+        <v>0.3347010967234674</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1922590819373006</v>
+        <v>0.1917234203214856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3009252108084127</v>
+        <v>0.3012189933904967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3339092254085634</v>
+        <v>0.33832186357583</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3196184092861259</v>
+        <v>0.3193306589820057</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1378033509624499</v>
+        <v>0.1379543386073526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1209334618151706</v>
+        <v>0.1212686459080469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2559154253070821</v>
+        <v>0.2595563852763205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1786162276766843</v>
+        <v>0.1811493725214346</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1940032619433525</v>
+        <v>0.1985223364381309</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2792719471630584</v>
+        <v>0.2835097144556729</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3279799957362195</v>
+        <v>0.3288275337765623</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2093628819801682</v>
+        <v>0.2104731471240248</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1765246275650238</v>
+        <v>0.1817455597531769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2122029806196361</v>
+        <v>0.2105886307339004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.306109948942909</v>
+        <v>0.3039005233671922</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2027356137246122</v>
+        <v>0.2032641677265455</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2236114407376577</v>
+        <v>0.2190007822989891</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2105283573344094</v>
+        <v>0.203514808116096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3532283545569368</v>
+        <v>0.3580805715269649</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2853179342446698</v>
+        <v>0.2770403414068268</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2854982881779535</v>
+        <v>0.2911734639847072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.382907501690191</v>
+        <v>0.3856394447002995</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4313340572063264</v>
+        <v>0.427262445680738</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2893297786283835</v>
+        <v>0.2889651981932658</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2388380902359136</v>
+        <v>0.242998014103651</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2812098115314928</v>
+        <v>0.2789104355639305</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3791775407107409</v>
+        <v>0.3753200562713878</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2679553562619577</v>
+        <v>0.2685067143299667</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.5042790238468043</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3019492972789816</v>
+        <v>0.3019492972789817</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1141140751808531</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06000284413152743</v>
+        <v>0.0574031688990979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1619561408347968</v>
+        <v>0.1624856027558996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.335310277493649</v>
+        <v>0.3367213987483194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2419657400469377</v>
+        <v>0.2339569126756015</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08986858844004444</v>
+        <v>0.0935064510711857</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2876725913620982</v>
+        <v>0.2930242921129376</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4323303243011738</v>
+        <v>0.4420244102076624</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2558649150033192</v>
+        <v>0.2566786330915448</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08503901647634558</v>
+        <v>0.08459345412546285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2472500669022908</v>
+        <v>0.2515661990937045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.406377594637946</v>
+        <v>0.4131637130742092</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.263753707550085</v>
+        <v>0.2622340774122122</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1414199422648076</v>
+        <v>0.1377325475543187</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2833101660386203</v>
+        <v>0.2817433319963746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4703757443663302</v>
+        <v>0.4709151596415948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3531710185766007</v>
+        <v>0.3505838440572739</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1918217782764184</v>
+        <v>0.1924013704834456</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4221003677029947</v>
+        <v>0.4257815101774092</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5674906294062593</v>
+        <v>0.5663894029932044</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3487254374487993</v>
+        <v>0.346271018164286</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1477094498497794</v>
+        <v>0.1483162235256746</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.33534397050196</v>
+        <v>0.3414061775326019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5019929815138892</v>
+        <v>0.5040055378476408</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3373582206124542</v>
+        <v>0.334153324491118</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1620563536653739</v>
+        <v>0.166662032759548</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2347302283891347</v>
+        <v>0.2352454999796598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1748321949136863</v>
+        <v>0.1790530674748743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2504366296343843</v>
+        <v>0.247459239961965</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1883444147033239</v>
+        <v>0.1825524937631464</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3216401774668426</v>
+        <v>0.3217404660347646</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2586979189955962</v>
+        <v>0.2592306194980325</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2623419815496775</v>
+        <v>0.2639030396171908</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1894290911732343</v>
+        <v>0.1838870708938412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2894011152382234</v>
+        <v>0.2925196629797145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2313478798444121</v>
+        <v>0.2331306624715952</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2697398811871585</v>
+        <v>0.2696579954655594</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2658162896452687</v>
+        <v>0.2662815995436522</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3505459122086531</v>
+        <v>0.3532601946972221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2797133123672789</v>
+        <v>0.2815019260572492</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3416954045886816</v>
+        <v>0.3419607313534574</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2945464501913245</v>
+        <v>0.2897783916651728</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4377340303230721</v>
+        <v>0.4434411071263918</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3782721736647689</v>
+        <v>0.3726033467299945</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3451609274350419</v>
+        <v>0.3490194062449549</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2643477139638509</v>
+        <v>0.2596591567900497</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3800570809648475</v>
+        <v>0.3755332067895394</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3090395745821158</v>
+        <v>0.3124160180886895</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3302243852156909</v>
+        <v>0.3305415199745195</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.353752007934642</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3355299395480448</v>
+        <v>0.3355299395480449</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1356574419354318</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1081628365790634</v>
+        <v>0.1052269380633354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2283612879516698</v>
+        <v>0.2294260898929184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.26714710978821</v>
+        <v>0.2701887007060766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2031741884935986</v>
+        <v>0.2079339388643493</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1143499433804283</v>
+        <v>0.1132371723405447</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2980585459161719</v>
+        <v>0.2923441766457298</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3131150531941174</v>
+        <v>0.3165411199396177</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3043591029565303</v>
+        <v>0.3034848632451164</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1169363607304201</v>
+        <v>0.1175132917842808</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.273392437029798</v>
+        <v>0.2734479718687158</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3028693266524847</v>
+        <v>0.3041444520551509</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.267214930341725</v>
+        <v>0.2655089777987324</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1601764375107786</v>
+        <v>0.1597867785357154</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3012451877459294</v>
+        <v>0.2990076865196949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3448479928148559</v>
+        <v>0.3426852845636278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2755366547857294</v>
+        <v>0.2735020281642028</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1683727929907286</v>
+        <v>0.171594165223715</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3698882556385519</v>
+        <v>0.3662760267302034</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3907331343916108</v>
+        <v>0.3922031276473504</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3652078124866127</v>
+        <v>0.366530288591134</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1562470825867415</v>
+        <v>0.1566537292543683</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3261483260541408</v>
+        <v>0.325737874435445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3559411410703566</v>
+        <v>0.3573181940614122</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3144776310628461</v>
+        <v>0.3133789057077431</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.2637104162189557</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.6487761316767979</v>
+        <v>0.648776131676798</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2025668101678167</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1641673936426455</v>
+        <v>0.1651463138973882</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2100048736578025</v>
+        <v>0.2109998069779508</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1829496522279245</v>
+        <v>0.1802115591049509</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5623710115611055</v>
+        <v>0.5600435469051156</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1849440136970202</v>
+        <v>0.1847915810340068</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2506610597604708</v>
+        <v>0.2459149049054669</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2312724674684923</v>
+        <v>0.232984248402584</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6181329386835264</v>
+        <v>0.61607726699209</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1824348548826216</v>
+        <v>0.1792475309068847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2369540631609003</v>
+        <v>0.2382417918627009</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2151690583684313</v>
+        <v>0.2159110924708707</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5995146450445628</v>
+        <v>0.5963873771216879</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.220261548794014</v>
+        <v>0.2202823112925125</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2778051056928144</v>
+        <v>0.2773391838760247</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2405770328963781</v>
+        <v>0.2401532503257383</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6381310717548025</v>
+        <v>0.6368164330609493</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.244527090556195</v>
+        <v>0.2424737812276269</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3132589955312481</v>
+        <v>0.3119663305284536</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2959871788594414</v>
+        <v>0.2984175037224534</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6795851756655938</v>
+        <v>0.6777476721646034</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2242226781297924</v>
+        <v>0.2221969965365704</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2839934182436246</v>
+        <v>0.2865375756821929</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2582968014654121</v>
+        <v>0.2602744507592618</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6487403155029504</v>
+        <v>0.6454264790161978</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.3144433408234503</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40467</v>
+        <v>41221</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>55227</v>
+        <v>54439</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>84189</v>
+        <v>85106</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30321</v>
+        <v>29904</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>46920</v>
+        <v>45816</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>96382</v>
+        <v>97353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110040</v>
+        <v>111612</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26897</v>
+        <v>27338</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>94543</v>
+        <v>94927</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>159614</v>
+        <v>157761</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>202705</v>
+        <v>203466</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>62733</v>
+        <v>62635</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65994</v>
+        <v>66987</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>84509</v>
+        <v>82077</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>116626</v>
+        <v>117912</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52685</v>
+        <v>51828</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>72785</v>
+        <v>74363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130929</v>
+        <v>132721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>146024</v>
+        <v>145460</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42497</v>
+        <v>43298</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>132461</v>
+        <v>132561</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>203528</v>
+        <v>204431</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>252530</v>
+        <v>252417</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>88876</v>
+        <v>89125</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>88691</v>
+        <v>91454</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>164676</v>
+        <v>166016</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>120229</v>
+        <v>119975</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>181068</v>
+        <v>182876</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>137499</v>
+        <v>138824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>206434</v>
+        <v>206659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>166202</v>
+        <v>166183</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>204153</v>
+        <v>204211</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>238198</v>
+        <v>239313</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>386012</v>
+        <v>381991</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>297701</v>
+        <v>296350</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>402205</v>
+        <v>399415</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>126665</v>
+        <v>129755</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>210175</v>
+        <v>210352</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162569</v>
+        <v>162155</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>236459</v>
+        <v>239095</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>178722</v>
+        <v>179227</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>252016</v>
+        <v>253362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>212582</v>
+        <v>213556</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>245573</v>
+        <v>246388</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>293093</v>
+        <v>292036</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>445187</v>
+        <v>448409</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>356362</v>
+        <v>360322</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>469300</v>
+        <v>469268</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30185</v>
+        <v>30841</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60933</v>
+        <v>60651</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>67617</v>
+        <v>66583</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>75050</v>
+        <v>74643</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>47760</v>
+        <v>47891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>82198</v>
+        <v>82048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>94516</v>
+        <v>93905</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91097</v>
+        <v>92524</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>83684</v>
+        <v>85738</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>152384</v>
+        <v>151269</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>169570</v>
+        <v>171429</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>172992</v>
+        <v>174889</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53870</v>
+        <v>54012</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>89951</v>
+        <v>92915</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>97618</v>
+        <v>98996</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>104283</v>
+        <v>105429</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>75911</v>
+        <v>74116</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>116950</v>
+        <v>115498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>128891</v>
+        <v>129612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>117185</v>
+        <v>119144</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>121766</v>
+        <v>121427</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>197028</v>
+        <v>197221</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>215734</v>
+        <v>218585</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>214772</v>
+        <v>214579</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47148</v>
+        <v>47199</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43298</v>
+        <v>43418</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>93935</v>
+        <v>95271</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>66650</v>
+        <v>67595</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67243</v>
+        <v>68810</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>101512</v>
+        <v>103053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>125435</v>
+        <v>125759</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88343</v>
+        <v>88811</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121581</v>
+        <v>125177</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>153108</v>
+        <v>151943</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>229430</v>
+        <v>227774</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>161197</v>
+        <v>161617</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>76506</v>
+        <v>74928</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75375</v>
+        <v>72864</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129654</v>
+        <v>131435</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>106465</v>
+        <v>103376</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>98957</v>
+        <v>100924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>139183</v>
+        <v>140176</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>164962</v>
+        <v>163405</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>122086</v>
+        <v>121932</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>164499</v>
+        <v>167364</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>202898</v>
+        <v>201239</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>284194</v>
+        <v>281303</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>213053</v>
+        <v>213492</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11523</v>
+        <v>11024</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33933</v>
+        <v>34044</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>70318</v>
+        <v>70614</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>49764</v>
+        <v>48117</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17778</v>
+        <v>18498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>62915</v>
+        <v>64085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>94502</v>
+        <v>96621</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>57820</v>
+        <v>58004</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33154</v>
+        <v>32980</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>105879</v>
+        <v>107727</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>174050</v>
+        <v>176957</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>113847</v>
+        <v>113191</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27158</v>
+        <v>26450</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59360</v>
+        <v>59031</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>98642</v>
+        <v>98756</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>72635</v>
+        <v>72103</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>37946</v>
+        <v>38061</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>92315</v>
+        <v>93120</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>124046</v>
+        <v>123805</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>78804</v>
+        <v>78250</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>57586</v>
+        <v>57823</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>143603</v>
+        <v>146199</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>215002</v>
+        <v>215864</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>145618</v>
+        <v>144235</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>40970</v>
+        <v>42135</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>63645</v>
+        <v>63785</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45362</v>
+        <v>46457</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>67795</v>
+        <v>66989</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>48257</v>
+        <v>46773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>88883</v>
+        <v>88911</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69880</v>
+        <v>70024</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>69193</v>
+        <v>69604</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>96425</v>
+        <v>93604</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>158442</v>
+        <v>160150</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>122518</v>
+        <v>123462</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>144164</v>
+        <v>144121</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>67202</v>
+        <v>67320</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95047</v>
+        <v>95783</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72575</v>
+        <v>73039</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>92499</v>
+        <v>92571</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>75468</v>
+        <v>74246</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>120965</v>
+        <v>122542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>102180</v>
+        <v>100649</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>91036</v>
+        <v>92054</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>134561</v>
+        <v>132175</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>208075</v>
+        <v>205598</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>163662</v>
+        <v>165451</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>176491</v>
+        <v>176660</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>64177</v>
+        <v>62435</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>148340</v>
+        <v>149032</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>170711</v>
+        <v>172654</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>146222</v>
+        <v>149647</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>69375</v>
+        <v>68700</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>203179</v>
+        <v>199283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>211587</v>
+        <v>213902</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>234720</v>
+        <v>234045</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>140327</v>
+        <v>141020</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>363956</v>
+        <v>364030</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>398201</v>
+        <v>399878</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>398385</v>
+        <v>395842</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>95039</v>
+        <v>94807</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>195684</v>
+        <v>194231</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>220363</v>
+        <v>218981</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>198300</v>
+        <v>196836</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>102151</v>
+        <v>104105</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>252143</v>
+        <v>249681</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>264037</v>
+        <v>265030</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>281646</v>
+        <v>282666</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>187501</v>
+        <v>187989</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>434188</v>
+        <v>433641</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>467978</v>
+        <v>469788</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>468848</v>
+        <v>467210</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>117096</v>
+        <v>117794</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>155436</v>
+        <v>156172</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>139067</v>
+        <v>136986</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>448813</v>
+        <v>446955</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>137194</v>
+        <v>137081</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>195137</v>
+        <v>191443</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>186651</v>
+        <v>188033</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>513048</v>
+        <v>511342</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>265458</v>
+        <v>260820</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>359849</v>
+        <v>361805</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>337213</v>
+        <v>338376</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>976051</v>
+        <v>970959</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>157106</v>
+        <v>157121</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>205619</v>
+        <v>205274</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>182872</v>
+        <v>182550</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>509275</v>
+        <v>508225</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>181393</v>
+        <v>179870</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>243869</v>
+        <v>242863</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>238880</v>
+        <v>240841</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>564053</v>
+        <v>562528</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>326262</v>
+        <v>323315</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>431285</v>
+        <v>435149</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>404803</v>
+        <v>407903</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1056193</v>
+        <v>1050798</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
     </row>
     <row r="40">
